--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -111,7 +111,7 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent1029</t>
+    <t>Automatedesrsparent8815</t>
   </si>
   <si>
     <t/>
@@ -123,7 +123,7 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild3235</t>
+    <t>Automatedesrschild9029</t>
   </si>
   <si>
     <t>Location</t>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="100">
   <si>
     <t>Data Point Id</t>
   </si>
@@ -111,7 +111,7 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent8815</t>
+    <t>Automatedesrsparent6455</t>
   </si>
   <si>
     <t/>
@@ -123,7 +123,7 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild9029</t>
+    <t>Automatedesrschild5588</t>
   </si>
   <si>
     <t>Location</t>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Total energy consumption from nuclear sources</t>
+  </si>
+  <si>
+    <t>v5E154Calculated</t>
+  </si>
+  <si>
+    <t>(E1-5 AR 34) What is your percentage of energy consumption from nuclear sources in total energy consumption?</t>
+  </si>
+  <si>
+    <t>Percentage of energy consumption from nuclear sources in total energy consumption</t>
   </si>
   <si>
     <t>v5E155</t>
@@ -799,13 +808,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -844,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q2">
         <v>50</v>
@@ -858,13 +867,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -903,7 +912,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -973,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -981,16 +990,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1026,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -1034,16 +1043,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1079,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
@@ -1157,13 +1166,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1202,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -1216,13 +1225,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1261,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3">
         <v>30</v>
@@ -1345,13 +1354,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1390,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q2">
         <v>130</v>
@@ -1404,13 +1413,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1449,7 +1458,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3">
         <v>130</v>
@@ -1533,13 +1542,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1578,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q2">
         <v>98</v>
@@ -1592,13 +1601,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1637,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q3">
         <v>98</v>
@@ -1721,13 +1730,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1766,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q2">
         <v>125</v>
@@ -1780,13 +1789,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1825,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q3">
         <v>125</v>
@@ -1909,13 +1918,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1954,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q2">
         <v>130</v>
@@ -1968,13 +1977,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2013,7 +2022,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q3">
         <v>130</v>
@@ -2128,13 +2137,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -2173,7 +2182,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q2">
         <v>60</v>
@@ -2187,13 +2196,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2232,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q3">
         <v>60</v>
@@ -2302,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -2310,16 +2319,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2355,7 +2364,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -2363,16 +2372,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2408,7 +2417,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
@@ -2534,10 +2543,10 @@
         <v>27</v>
       </c>
       <c r="Q2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="R2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
@@ -2593,10 +2602,10 @@
         <v>27</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
         <v>25</v>
@@ -2660,7 +2669,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -2668,16 +2677,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2713,7 +2722,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -2721,16 +2730,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2766,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
@@ -2830,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -2838,16 +2847,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2891,16 +2900,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3000,7 +3009,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3008,16 +3017,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3061,16 +3070,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3170,7 +3179,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3178,16 +3187,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3223,7 +3232,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -3231,16 +3240,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3276,7 +3285,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
@@ -3340,7 +3349,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3348,16 +3357,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3401,16 +3410,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3510,7 +3519,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3518,16 +3527,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3571,16 +3580,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3680,7 +3689,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3688,16 +3697,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3733,7 +3742,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -3741,16 +3750,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3786,7 +3795,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
@@ -3850,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3858,16 +3867,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3903,7 +3912,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
         <v>25</v>
@@ -3911,16 +3920,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3956,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
         <v>25</v>
@@ -4270,10 +4279,10 @@
         <v>35</v>
       </c>
       <c r="Q2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="R2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
@@ -4329,10 +4338,10 @@
         <v>35</v>
       </c>
       <c r="Q3">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
         <v>25</v>
@@ -4346,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:S3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4367,6 +4376,163 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4441,13 +4607,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4486,7 +4652,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>70</v>
@@ -4500,13 +4666,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4545,7 +4711,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>70</v>
@@ -4629,13 +4795,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4674,7 +4840,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>80</v>
@@ -4688,13 +4854,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4733,7 +4899,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>80</v>
@@ -4817,13 +4983,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4862,7 +5028,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q2">
         <v>90</v>
@@ -4876,13 +5042,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4921,7 +5087,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q3">
         <v>90</v>
@@ -5005,13 +5171,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5050,7 +5216,7 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q2">
         <v>100</v>
@@ -5064,13 +5230,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -5109,7 +5275,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q3">
         <v>100</v>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -111,7 +111,7 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent6455</t>
+    <t>Automatedesrsparent9573</t>
   </si>
   <si>
     <t/>
@@ -123,7 +123,7 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild5588</t>
+    <t>Automatedesrschild4908</t>
   </si>
   <si>
     <t>Location</t>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -111,7 +111,7 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent9573</t>
+    <t>Automatedesrsparent4996</t>
   </si>
   <si>
     <t/>
@@ -123,7 +123,7 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild4908</t>
+    <t>Automatedesrschild7589</t>
   </si>
   <si>
     <t>Location</t>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -111,7 +111,7 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent4996</t>
+    <t>Automatedesrsparent2355</t>
   </si>
   <si>
     <t/>
@@ -123,7 +123,7 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild7589</t>
+    <t>Automatedesrschild8198</t>
   </si>
   <si>
     <t>Location</t>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -111,7 +111,7 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent2355</t>
+    <t>Automatedesrsparent3595</t>
   </si>
   <si>
     <t/>
@@ -123,7 +123,7 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild8198</t>
+    <t>Automatedesrschild6578</t>
   </si>
   <si>
     <t>Location</t>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="102">
   <si>
     <t>Data Point Id</t>
   </si>
@@ -111,7 +111,10 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent3595</t>
+    <t>Automatedesrsparent8957</t>
+  </si>
+  <si>
+    <t>685e4251e9f289964d035831</t>
   </si>
   <si>
     <t/>
@@ -123,7 +126,10 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild6578</t>
+    <t>Automatedesrschild0194</t>
+  </si>
+  <si>
+    <t>685e427de9f289964d035866</t>
   </si>
   <si>
     <t>Location</t>
@@ -808,13 +814,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -832,13 +838,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -847,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q2">
         <v>50</v>
@@ -862,18 +868,18 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -885,10 +891,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -897,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -906,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -921,7 +927,7 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -990,16 +996,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1014,13 +1020,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1029,30 +1035,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1061,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1073,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1082,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1166,13 +1172,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1190,13 +1196,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1205,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -1220,18 +1226,18 @@
         <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1243,10 +1249,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1255,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1264,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q3">
         <v>30</v>
@@ -1279,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1354,13 +1360,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1378,13 +1384,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1393,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q2">
         <v>130</v>
@@ -1408,18 +1414,18 @@
         <v>130</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1431,10 +1437,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1443,7 +1449,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1452,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q3">
         <v>130</v>
@@ -1467,7 +1473,7 @@
         <v>130</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1542,13 +1548,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1566,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1581,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q2">
         <v>98</v>
@@ -1596,18 +1602,18 @@
         <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1619,10 +1625,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1631,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1640,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q3">
         <v>98</v>
@@ -1655,7 +1661,7 @@
         <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1730,13 +1736,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1754,13 +1760,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1769,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q2">
         <v>125</v>
@@ -1784,18 +1790,18 @@
         <v>130</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1807,10 +1813,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1819,7 +1825,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1828,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q3">
         <v>125</v>
@@ -1843,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1918,13 +1924,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1942,13 +1948,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1957,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q2">
         <v>130</v>
@@ -1972,18 +1978,18 @@
         <v>135</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1995,10 +2001,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -2007,7 +2013,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2016,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q3">
         <v>130</v>
@@ -2031,7 +2037,7 @@
         <v>135</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2137,13 +2143,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -2161,13 +2167,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -2176,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q2">
         <v>60</v>
@@ -2191,18 +2197,18 @@
         <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -2214,10 +2220,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -2226,7 +2232,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2235,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q3">
         <v>60</v>
@@ -2250,7 +2256,7 @@
         <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2317,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -2319,16 +2325,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2343,13 +2349,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -2358,30 +2364,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2390,10 +2396,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -2402,7 +2408,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2411,16 +2417,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2519,13 +2525,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -2534,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>60</v>
@@ -2549,7 +2555,7 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2572,10 +2578,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -2584,7 +2590,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2593,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3">
         <v>60</v>
@@ -2608,7 +2614,7 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2675,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -2677,16 +2683,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2701,13 +2707,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -2716,30 +2722,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2748,10 +2754,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -2760,7 +2766,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2769,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2845,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -2847,16 +2853,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2871,13 +2877,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -2886,30 +2892,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2918,10 +2924,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -2930,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2939,16 +2945,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3017,16 +3023,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3041,13 +3047,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3056,30 +3062,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3088,10 +3094,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -3100,7 +3106,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3109,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3185,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3187,16 +3193,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3211,13 +3217,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3226,30 +3232,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3258,10 +3264,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -3270,7 +3276,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3279,16 +3285,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3355,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3357,16 +3363,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3381,13 +3387,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3396,30 +3402,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3428,10 +3434,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -3440,7 +3446,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3449,16 +3455,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>90</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +3525,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3527,16 +3533,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3551,13 +3557,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3566,30 +3572,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>490</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3598,10 +3604,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -3610,7 +3616,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3619,16 +3625,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>490</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3697,16 +3703,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3721,13 +3727,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3736,30 +3742,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3768,10 +3774,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -3780,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3789,16 +3795,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q1" t="s">
         <v>18</v>
@@ -3867,16 +3873,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -3891,13 +3897,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -3906,30 +3912,30 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -3938,10 +3944,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -3950,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -3959,16 +3965,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4043,13 +4049,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4067,13 +4073,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -4082,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <v>50</v>
@@ -4097,18 +4103,18 @@
         <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4120,10 +4126,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -4132,7 +4138,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -4141,13 +4147,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -4156,7 +4162,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4231,13 +4237,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4255,13 +4261,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -4270,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -4285,18 +4291,18 @@
         <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4308,10 +4314,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -4320,7 +4326,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -4329,13 +4335,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -4344,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4419,13 +4425,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4443,13 +4449,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -4458,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>20</v>
@@ -4473,18 +4479,18 @@
         <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4496,10 +4502,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -4508,7 +4514,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -4517,13 +4523,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -4532,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4607,13 +4613,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4631,13 +4637,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -4646,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2">
         <v>70</v>
@@ -4661,18 +4667,18 @@
         <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4684,10 +4690,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -4696,7 +4702,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -4705,13 +4711,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>70</v>
@@ -4720,7 +4726,7 @@
         <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4795,13 +4801,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4819,13 +4825,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -4834,13 +4840,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q2">
         <v>80</v>
@@ -4849,18 +4855,18 @@
         <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4872,10 +4878,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -4884,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -4893,13 +4899,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>80</v>
@@ -4908,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4983,13 +4989,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5007,13 +5013,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -5022,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q2">
         <v>90</v>
@@ -5037,18 +5043,18 @@
         <v>90</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -5060,10 +5066,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -5072,7 +5078,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -5081,13 +5087,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q3">
         <v>90</v>
@@ -5096,7 +5102,7 @@
         <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5171,13 +5177,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -5195,13 +5201,13 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -5210,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <v>100</v>
@@ -5225,18 +5231,18 @@
         <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -5248,10 +5254,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -5260,7 +5266,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -5269,13 +5275,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -5284,7 +5290,7 @@
         <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/downloadedrsrlitefile/exported_data.xlsx
+++ b/downloadedrsrlitefile/exported_data.xlsx
@@ -111,10 +111,10 @@
     <t>aggregated</t>
   </si>
   <si>
-    <t>Automatedesrsparent8957</t>
-  </si>
-  <si>
-    <t>685e4251e9f289964d035831</t>
+    <t>Automatedesrsparent8790</t>
+  </si>
+  <si>
+    <t>685e7e5ee9f289964d049824</t>
   </si>
   <si>
     <t/>
@@ -126,10 +126,10 @@
     <t>Total energy consumption related to own operations</t>
   </si>
   <si>
-    <t>Automatedesrschild0194</t>
-  </si>
-  <si>
-    <t>685e427de9f289964d035866</t>
+    <t>Automatedesrschild1695</t>
+  </si>
+  <si>
+    <t>685e7e8ce9f289964d049859</t>
   </si>
   <si>
     <t>Location</t>
